--- a/206_final_resource_doc.xlsx
+++ b/206_final_resource_doc.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Desktop\206_folders\fa20-finalproject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2CB701-A62B-4BCB-97DA-3CF799C47AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -113,55 +122,94 @@
   </si>
   <si>
     <t>did not need, forgot that .append() existed to add items to a list</t>
+  </si>
+  <si>
+    <t>iss doesn't always collect valid data that would run through weather api</t>
+  </si>
+  <si>
+    <t>https://spotthestation.nasa.gov/tracking_map.cfm</t>
+  </si>
+  <si>
+    <t>most frustrating thing, had to track ISS location and collect 700+ raw data points</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/9001509/how-can-i-sort-a-dictionary-by-key</t>
+  </si>
+  <si>
+    <t>solved! Just needed a reminder on sorting</t>
+  </si>
+  <si>
+    <t>forgot how to sort a dictionary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="8">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -171,67 +219,63 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEA9999"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -421,25 +465,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="64.57"/>
-    <col customWidth="1" min="3" max="3" width="25.86"/>
-    <col customWidth="1" min="4" max="4" width="78.14"/>
+    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="78.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,13 +498,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44160.0</v>
+        <v>44160</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -467,9 +516,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44161.0</v>
+        <v>44161</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -481,135 +530,164 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1">
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44168.0</v>
+        <v>46692</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>44168.0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>44168.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>44168.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>44170.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44170</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7">
-        <v>44172.0</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>44172</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7">
-        <v>44172.0</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>44172</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7">
-        <v>44175.0</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>44175</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>44175</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1001">
+  <conditionalFormatting sqref="D1:D1002">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" location=":~:text=OperationalError%3A%20database%20is%20locked%20errors,the%20lock%20the%20be%20released." ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C5"/>
-    <hyperlink r:id="rId4" ref="C6"/>
-    <hyperlink r:id="rId5" ref="C7"/>
-    <hyperlink r:id="rId6" ref="C8"/>
-    <hyperlink r:id="rId7" ref="C9"/>
-    <hyperlink r:id="rId8" ref="C10"/>
-    <hyperlink r:id="rId9" ref="C11"/>
+    <hyperlink ref="C2" r:id="rId1" location=":~:text=OperationalError%3A%20database%20is%20locked%20errors,the%20lock%20the%20be%20released." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId10"/>
 </worksheet>
 </file>